--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/a-Mc1r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/a-Mc1r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -83,9 +86,6 @@
   </si>
   <si>
     <t>Mc1r</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.215186</v>
+        <v>0.045339</v>
       </c>
       <c r="H2">
-        <v>0.645558</v>
+        <v>0.136017</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.1740293637846656</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.1740293637846656</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3839713333333334</v>
+        <v>0.7564453333333333</v>
       </c>
       <c r="N2">
-        <v>1.151914</v>
+        <v>2.269336</v>
       </c>
       <c r="O2">
-        <v>0.1190905804207292</v>
+        <v>0.2228868660598179</v>
       </c>
       <c r="P2">
-        <v>0.1190905804207292</v>
+        <v>0.2228868660598179</v>
       </c>
       <c r="Q2">
-        <v>0.08262525533466668</v>
+        <v>0.034296474968</v>
       </c>
       <c r="R2">
-        <v>0.743627298012</v>
+        <v>0.308668274712</v>
       </c>
       <c r="S2">
-        <v>0.1190905804207292</v>
+        <v>0.03878885949634809</v>
       </c>
       <c r="T2">
-        <v>0.1190905804207292</v>
+        <v>0.03878885949634809</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.215186</v>
+        <v>0.045339</v>
       </c>
       <c r="H3">
-        <v>0.645558</v>
+        <v>0.136017</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.1740293637846656</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.1740293637846656</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>5.342209</v>
       </c>
       <c r="O3">
-        <v>0.5523040526800121</v>
+        <v>0.5246945458259835</v>
       </c>
       <c r="P3">
-        <v>0.5523040526800121</v>
+        <v>0.5246945458259834</v>
       </c>
       <c r="Q3">
-        <v>0.3831895286246667</v>
+        <v>0.080736804617</v>
       </c>
       <c r="R3">
-        <v>3.448705757622</v>
+        <v>0.7266312415530001</v>
       </c>
       <c r="S3">
-        <v>0.5523040526800121</v>
+        <v>0.09131225799137997</v>
       </c>
       <c r="T3">
-        <v>0.5523040526800121</v>
+        <v>0.09131225799137996</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.215186</v>
+        <v>0.045339</v>
       </c>
       <c r="H4">
-        <v>0.645558</v>
+        <v>0.136017</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.1740293637846656</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.1740293637846656</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6969213333333334</v>
+        <v>0.6826836666666667</v>
       </c>
       <c r="N4">
-        <v>2.090764</v>
+        <v>2.048051</v>
       </c>
       <c r="O4">
-        <v>0.2161535481665867</v>
+        <v>0.2011529667359422</v>
       </c>
       <c r="P4">
-        <v>0.2161535481665867</v>
+        <v>0.2011529667359422</v>
       </c>
       <c r="Q4">
-        <v>0.1499677140346667</v>
+        <v>0.030952194763</v>
       </c>
       <c r="R4">
-        <v>1.349709426312</v>
+        <v>0.278569752867</v>
       </c>
       <c r="S4">
-        <v>0.2161535481665867</v>
+        <v>0.03500652282445402</v>
       </c>
       <c r="T4">
-        <v>0.2161535481665867</v>
+        <v>0.03500652282445402</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,10 +708,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.215186</v>
+        <v>0.045339</v>
       </c>
       <c r="H5">
-        <v>0.645558</v>
+        <v>0.136017</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.1740293637846656</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.1740293637846656</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,276 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3625666666666667</v>
+        <v>0.173988</v>
       </c>
       <c r="N5">
-        <v>1.0877</v>
+        <v>0.5219640000000001</v>
       </c>
       <c r="O5">
-        <v>0.112451818732672</v>
+        <v>0.05126562137825639</v>
       </c>
       <c r="P5">
-        <v>0.112451818732672</v>
+        <v>0.05126562137825638</v>
       </c>
       <c r="Q5">
-        <v>0.07801927073333334</v>
+        <v>0.007888441932000001</v>
       </c>
       <c r="R5">
-        <v>0.7021734366000001</v>
+        <v>0.07099597738800001</v>
       </c>
       <c r="S5">
-        <v>0.112451818732672</v>
+        <v>0.00892172347248351</v>
       </c>
       <c r="T5">
-        <v>0.112451818732672</v>
+        <v>0.00892172347248351</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.215186</v>
+      </c>
+      <c r="H6">
+        <v>0.645558</v>
+      </c>
+      <c r="I6">
+        <v>0.8259706362153344</v>
+      </c>
+      <c r="J6">
+        <v>0.8259706362153345</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.7564453333333333</v>
+      </c>
+      <c r="N6">
+        <v>2.269336</v>
+      </c>
+      <c r="O6">
+        <v>0.2228868660598179</v>
+      </c>
+      <c r="P6">
+        <v>0.2228868660598179</v>
+      </c>
+      <c r="Q6">
+        <v>0.1627764454986667</v>
+      </c>
+      <c r="R6">
+        <v>1.464988009488</v>
+      </c>
+      <c r="S6">
+        <v>0.1840980065634699</v>
+      </c>
+      <c r="T6">
+        <v>0.1840980065634699</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.215186</v>
+      </c>
+      <c r="H7">
+        <v>0.645558</v>
+      </c>
+      <c r="I7">
+        <v>0.8259706362153344</v>
+      </c>
+      <c r="J7">
+        <v>0.8259706362153345</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.780736333333333</v>
+      </c>
+      <c r="N7">
+        <v>5.342209</v>
+      </c>
+      <c r="O7">
+        <v>0.5246945458259835</v>
+      </c>
+      <c r="P7">
+        <v>0.5246945458259834</v>
+      </c>
+      <c r="Q7">
+        <v>0.3831895286246667</v>
+      </c>
+      <c r="R7">
+        <v>3.448705757622</v>
+      </c>
+      <c r="S7">
+        <v>0.4333822878346035</v>
+      </c>
+      <c r="T7">
+        <v>0.4333822878346035</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.215186</v>
+      </c>
+      <c r="H8">
+        <v>0.645558</v>
+      </c>
+      <c r="I8">
+        <v>0.8259706362153344</v>
+      </c>
+      <c r="J8">
+        <v>0.8259706362153345</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.6826836666666667</v>
+      </c>
+      <c r="N8">
+        <v>2.048051</v>
+      </c>
+      <c r="O8">
+        <v>0.2011529667359422</v>
+      </c>
+      <c r="P8">
+        <v>0.2011529667359422</v>
+      </c>
+      <c r="Q8">
+        <v>0.1469039674953333</v>
+      </c>
+      <c r="R8">
+        <v>1.322135707458</v>
+      </c>
+      <c r="S8">
+        <v>0.1661464439114882</v>
+      </c>
+      <c r="T8">
+        <v>0.1661464439114882</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.215186</v>
+      </c>
+      <c r="H9">
+        <v>0.645558</v>
+      </c>
+      <c r="I9">
+        <v>0.8259706362153344</v>
+      </c>
+      <c r="J9">
+        <v>0.8259706362153345</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.173988</v>
+      </c>
+      <c r="N9">
+        <v>0.5219640000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.05126562137825639</v>
+      </c>
+      <c r="P9">
+        <v>0.05126562137825638</v>
+      </c>
+      <c r="Q9">
+        <v>0.037439781768</v>
+      </c>
+      <c r="R9">
+        <v>0.336958035912</v>
+      </c>
+      <c r="S9">
+        <v>0.04234389790577288</v>
+      </c>
+      <c r="T9">
+        <v>0.04234389790577288</v>
       </c>
     </row>
   </sheetData>
